--- a/포트폴리오 상세화면_데이터.xlsx
+++ b/포트폴리오 상세화면_데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkddk\OneDrive\바탕 화면\24-2\빅데이터종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF0CE02-AA0C-49AD-A409-868260ECA00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB771269-89AB-4D85-9997-AC02A5C12A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8035D9C5-A861-40BA-88B9-9A7A37F1E48C}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{8035D9C5-A861-40BA-88B9-9A7A37F1E48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +615,12 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -954,13 +960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC94105-7F19-4E8E-BA99-01901CBAFD55}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="25" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
@@ -973,7 +979,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1011,7 +1017,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1049,7 +1055,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1087,7 +1093,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1125,7 +1131,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1163,7 +1169,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1201,7 +1207,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1239,7 +1245,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1277,7 +1283,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1315,7 +1321,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1353,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1391,7 +1397,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1430,7 +1436,7 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1469,7 +1475,7 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1508,7 +1514,7 @@
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1547,7 +1553,7 @@
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1586,7 +1592,7 @@
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1625,7 +1631,7 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1664,7 +1670,7 @@
       <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1703,7 +1709,7 @@
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1742,7 +1748,7 @@
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1790,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CED401-67B0-4889-9CF0-C2353EB99D1C}">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
